--- a/artifacts/Lab0_sorting_rubric_for_final_submission.xlsx
+++ b/artifacts/Lab0_sorting_rubric_for_final_submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\pdn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B9F411-55DF-43BE-A0DD-DD86D8CBD775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929B1A4-6F17-4A72-9F40-547D091F0D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1785" windowWidth="25755" windowHeight="15660" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21500" yWindow="6310" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -859,7 +859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,13 +1017,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,9 +1042,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1082,7 +1082,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1188,7 +1188,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1330,7 +1330,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1344,12 +1344,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1434,14 +1434,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1492,13 +1492,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="18"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>23</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>24</v>
       </c>
@@ -1530,12 +1530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="26" t="s">
         <v>26</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="26" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>41</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>42</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>43</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>45</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>46</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1794,10 +1794,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" s="27"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1851,10 +1851,10 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B58" s="27"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>62</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>63</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>64</v>
       </c>
@@ -1894,21 +1894,21 @@
       <selection activeCell="Z86" sqref="Z86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="80.7265625" customWidth="1"/>
+    <col min="6" max="6" width="50.7265625" customWidth="1"/>
+    <col min="7" max="7" width="83.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1917,19 +1917,19 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="19"/>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
       <c r="S1" s="19" t="s">
         <v>67</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="W1" s="15"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>83</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="V3" s="15"/>
       <c r="W3" s="25"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>5</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>5</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>5</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>5</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>5</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>5</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>5</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>5</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>5</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>5</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -2867,7 +2867,7 @@
       <c r="V21" s="24"/>
       <c r="W21" s="25"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="V22" s="15"/>
       <c r="W22" s="25"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>127</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="V23" s="15"/>
       <c r="W23" s="25"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>128</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>5</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>5</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>5</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>5</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>5</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>5</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>5</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>5</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>5</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>172</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>5</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>5</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>5</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>184</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>5</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>5</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>5</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>196</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>200</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>200</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>206</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>5</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>5</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>5</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>5</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>5</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>5</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>221</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>5</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>5</v>
@@ -4421,7 +4421,7 @@
       <c r="D57" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="30" t="s">
         <v>227</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>5</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>5</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
       <c r="O61" s="18"/>
@@ -4577,7 +4577,7 @@
       <c r="V61" s="24"/>
       <c r="W61" s="25"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>234</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>236</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>5</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>5</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>5</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>90</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4832,7 +4832,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4871,7 +4871,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4886,7 +4886,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4912,7 +4912,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4921,7 +4921,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>256</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>257</v>
       </c>
@@ -4957,13 +4957,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -5183,18 +5183,18 @@
   <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0.33</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -5254,18 +5254,18 @@
       </c>
       <c r="I11">
         <f>AVERAGE(C11:D11)</f>
-        <v>0.16500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="J11">
         <f>AVERAGE(C11:E11)</f>
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="K11">
         <f>AVERAGE(C11:F11)</f>
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>0.33</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -5283,18 +5283,18 @@
       </c>
       <c r="I12">
         <f t="shared" ref="I12:I14" si="0">AVERAGE(C12:D12)</f>
-        <v>0.16500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J14" si="1">AVERAGE(C12:E12)</f>
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:K14" si="2">AVERAGE(C12:F12)</f>
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>0.33</v>
       </c>
       <c r="D13" s="12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -5312,18 +5312,18 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.16500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>270</v>
       </c>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="D17">
         <f t="shared" ref="D17:F17" si="3">SUM(D11:D14)</f>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
@@ -5379,20 +5379,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="19dc0929-3265-432c-90cd-a4a18b147cbc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="19dc0929-3265-432c-90cd-a4a18b147cbc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5643,13 +5643,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E4E88A-17F8-40B2-8EC1-AE408CF7AA54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A377B27C-73B5-421A-9BAA-7FB75238CE4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19dc0929-3265-432c-90cd-a4a18b147cbc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A377B27C-73B5-421A-9BAA-7FB75238CE4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E4E88A-17F8-40B2-8EC1-AE408CF7AA54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9BD7DA-52C8-49CE-B9E2-21F98F087543}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9BD7DA-52C8-49CE-B9E2-21F98F087543}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="19dc0929-3265-432c-90cd-a4a18b147cbc"/>
+    <ds:schemaRef ds:uri="e15c2e9d-9071-420f-8402-443b554f1232"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/artifacts/Lab0_sorting_rubric_for_final_submission.xlsx
+++ b/artifacts/Lab0_sorting_rubric_for_final_submission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajat\Downloads\PG_1\lab0\lab0\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929B1A4-6F17-4A72-9F40-547D091F0D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2462CA3-1C68-4367-AA53-0BBF041A2C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21500" yWindow="6310" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -1431,7 +1431,7 @@
   <dimension ref="A2:E61"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1562,8 +1562,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="25">
-        <f>Attendance!E20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="25">
         <f>Attendance!F20</f>
@@ -1581,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E23" s="18">
         <v>0</v>
@@ -1601,7 +1600,7 @@
       </c>
       <c r="D24" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
@@ -1614,7 +1613,7 @@
       </c>
       <c r="B26" s="25">
         <f>SUM(B24:E24)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1890,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D498C59D-E060-40B6-B59A-036A9DD1C81C}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="Z86" sqref="Z86"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4954,7 +4953,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5046,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="12">
         <v>0</v>
@@ -5066,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="12">
         <v>0</v>
@@ -5086,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="12">
         <v>0</v>
@@ -5126,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
@@ -5146,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12">
         <v>0</v>
@@ -5166,7 +5165,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -5183,7 +5182,7 @@
   <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5247,7 +5246,7 @@
         <v>0.33</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F11" s="12">
         <v>0</v>
@@ -5258,11 +5257,11 @@
       </c>
       <c r="J11">
         <f>AVERAGE(C11:E11)</f>
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="K11">
         <f>AVERAGE(C11:F11)</f>
-        <v>0.16500000000000001</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5276,7 +5275,7 @@
         <v>0.33</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F12" s="12">
         <v>0</v>
@@ -5287,11 +5286,11 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J14" si="1">AVERAGE(C12:E12)</f>
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:K14" si="2">AVERAGE(C12:F12)</f>
-        <v>0.16500000000000001</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5305,7 +5304,7 @@
         <v>0.33</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F13" s="12">
         <v>0</v>
@@ -5316,11 +5315,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>0.16500000000000001</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -5366,7 +5365,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
@@ -5379,23 +5378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="19dc0929-3265-432c-90cd-a4a18b147cbc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100425D870C9FE3FA459BE7BAB817912A28" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2888a6b5c62326ad14675b6ae20d83ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="19dc0929-3265-432c-90cd-a4a18b147cbc" xmlns:ns4="e15c2e9d-9071-420f-8402-443b554f1232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df22a33983a74acd15e217796b17182e" ns3:_="" ns4:_="">
     <xsd:import namespace="19dc0929-3265-432c-90cd-a4a18b147cbc"/>
@@ -5642,25 +5624,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A377B27C-73B5-421A-9BAA-7FB75238CE4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="19dc0929-3265-432c-90cd-a4a18b147cbc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E4E88A-17F8-40B2-8EC1-AE408CF7AA54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="19dc0929-3265-432c-90cd-a4a18b147cbc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9BD7DA-52C8-49CE-B9E2-21F98F087543}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5677,4 +5658,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E4E88A-17F8-40B2-8EC1-AE408CF7AA54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A377B27C-73B5-421A-9BAA-7FB75238CE4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19dc0929-3265-432c-90cd-a4a18b147cbc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/artifacts/Lab0_sorting_rubric_for_final_submission.xlsx
+++ b/artifacts/Lab0_sorting_rubric_for_final_submission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajat\Downloads\PG_1\lab0\lab0\artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2462CA3-1C68-4367-AA53-0BBF041A2C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E7E3B-0C6B-4164-A7AB-A5F7E532F5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21160" yWindow="6650" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE25F09-78F6-4E9B-82D7-25CE88A172A9}">
   <dimension ref="A2:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="C22" s="25">
         <f>Attendance!D20</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22" s="25">
         <v>5</v>
@@ -1577,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" s="18">
         <v>9</v>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C24" s="25">
         <f t="shared" ref="C24:E24" si="0">SUM(C22:C23)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="0"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B26" s="25">
         <f>SUM(B24:E24)</f>
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1889,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D498C59D-E060-40B6-B59A-036A9DD1C81C}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
@@ -4952,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC45A0-EB3A-4D5D-BD47-C1C54A3E083F}">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="12">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="12">
         <v>1</v>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="D20">
         <f t="shared" ref="D20:F20" si="0">SUM(D11:D17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -5181,7 +5181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5364E817-80B1-4483-B837-995D14BDF7B6}">
   <dimension ref="A2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -5378,6 +5378,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100425D870C9FE3FA459BE7BAB817912A28" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2888a6b5c62326ad14675b6ae20d83ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="19dc0929-3265-432c-90cd-a4a18b147cbc" xmlns:ns4="e15c2e9d-9071-420f-8402-443b554f1232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df22a33983a74acd15e217796b17182e" ns3:_="" ns4:_="">
     <xsd:import namespace="19dc0929-3265-432c-90cd-a4a18b147cbc"/>
@@ -5624,15 +5633,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5642,6 +5642,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E4E88A-17F8-40B2-8EC1-AE408CF7AA54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9BD7DA-52C8-49CE-B9E2-21F98F087543}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5660,14 +5668,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75E4E88A-17F8-40B2-8EC1-AE408CF7AA54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A377B27C-73B5-421A-9BAA-7FB75238CE4F}">
   <ds:schemaRefs>
